--- a/Excel/Lectures/Lecture_3_logical.xlsx
+++ b/Excel/Lectures/Lecture_3_logical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DA_9PM\Excel\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4154AC-1E1F-4073-B267-7C96FA3B17D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26FDF7F-0AE0-4BDF-A284-0AF633387B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AND OR" sheetId="2" r:id="rId1"/>
@@ -47,6 +47,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,63 +588,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,7 +673,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1511,35 +1533,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:R5"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="3.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="15" width="11.7265625" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7265625" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" customWidth="1"/>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1547,29 +1569,29 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
       <c r="AB1" s="15"/>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:28" ht="32" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:28" ht="33" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
       <c r="P3" s="27" t="s">
         <v>33</v>
@@ -1581,7 +1603,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="37" t="s">
         <v>6</v>
@@ -1616,7 +1638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="40"/>
       <c r="D5" s="41"/>
@@ -1652,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
@@ -1670,11 +1692,20 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-    </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="35" t="b">
+        <f t="shared" ref="P6:P9" si="0">M6=100</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="35" t="b">
+        <f t="shared" ref="Q6:Q9" si="1">AND(M6&gt;75,N6&gt;75,O6&gt;75)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="35" t="b">
+        <f t="shared" ref="R6:R9" si="2">OR(M6&lt;35,N6&lt;35,O6&lt;35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="40"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
@@ -1692,11 +1723,20 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-    </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P7" s="35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
@@ -1714,11 +1754,20 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-    </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="35" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -1736,18 +1785,27 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-    </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P9" s="35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="35" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="40"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="42"/>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
       <c r="C11" s="43"/>
       <c r="D11" s="44"/>
@@ -1755,14 +1813,14 @@
       <c r="F11" s="44"/>
       <c r="G11" s="45"/>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
         <v>5</v>
@@ -1772,7 +1830,7 @@
       <c r="F14" s="47"/>
       <c r="G14" s="48"/>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
@@ -1780,7 +1838,7 @@
       <c r="F15" s="50"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
@@ -1788,35 +1846,35 @@
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
     </row>
-    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="52"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
@@ -1825,17 +1883,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1846,30 +1904,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F3" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showGridLines="0" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="3.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
-    <col min="13" max="15" width="11.7265625" customWidth="1"/>
-    <col min="16" max="16" width="21.81640625" customWidth="1"/>
-    <col min="17" max="17" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" customWidth="1"/>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -1882,27 +1940,27 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="46.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="48" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
       <c r="P3" s="27" t="s">
         <v>35</v>
@@ -1914,15 +1972,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1949,13 +2007,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1973,7 +2031,7 @@
         <v>85</v>
       </c>
       <c r="P5" s="22" t="str">
-        <f>IF(M5&gt;=75,"A","B")</f>
+        <f>IF(M5&gt;75,"A","B")</f>
         <v>A</v>
       </c>
       <c r="Q5" s="22" t="str">
@@ -1982,12 +2040,12 @@
       </c>
       <c r="R5" s="22"/>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2000,16 +2058,22 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="22" t="str">
+        <f t="shared" ref="P6:P9" si="0">IF(M6&gt;75,"A","B")</f>
+        <v>B</v>
+      </c>
+      <c r="Q6" s="22" t="str">
+        <f t="shared" ref="Q6:Q9" si="1">IF(N6&gt;=85,"A",IF(N6&gt;=60,"B","C"))</f>
+        <v>C</v>
+      </c>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2022,16 +2086,22 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
+      <c r="P7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Q7" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2044,16 +2114,22 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
+      <c r="P8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Q8" s="22" t="str">
+        <f>IF(N8&gt;=85,"A",IF(N8&gt;=60,"B","C"))</f>
+        <v>A</v>
+      </c>
       <c r="R8" s="22"/>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2066,26 +2142,32 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="P9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="Q9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
       <c r="R9" s="22"/>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-    </row>
-    <row r="12" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
       <c r="P12" s="27" t="s">
@@ -2095,7 +2177,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="13"/>
       <c r="L13" s="28" t="s">
         <v>1</v>
@@ -2116,7 +2198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
         <v>7</v>
@@ -2142,11 +2224,11 @@
         <v>Passed with Distinction</v>
       </c>
       <c r="Q14" s="29" t="str">
-        <f>IF(OR(M14&lt;35,N14&lt;35,O14&lt;85),"Failed","Promoted to next class")</f>
+        <f>IF(OR(M14&lt;35,N14&lt;35,O14&lt;35),"Failed","Promoted to next class")</f>
         <v>Promoted to next class</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
@@ -2166,12 +2248,15 @@
         <v>43</v>
       </c>
       <c r="P15" s="29" t="str">
-        <f t="shared" ref="P15:P18" si="0">IF(AND(M15&gt;75,N15&gt;75,O15&gt;75),"Passed With Distinction","")</f>
+        <f>IF(AND(M15&gt;75,N15&gt;75,O15&gt;75),"Passed with Distinction","")</f>
         <v/>
       </c>
-      <c r="Q15" s="29"/>
-    </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="29" t="str">
+        <f t="shared" ref="Q15:Q18" si="2">IF(OR(M15&lt;35,N15&lt;35,O15&lt;35),"Failed","Promoted to next class")</f>
+        <v>Promoted to next class</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
@@ -2190,10 +2275,16 @@
       <c r="O16" s="29">
         <v>79</v>
       </c>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-    </row>
-    <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="29" t="str">
+        <f t="shared" ref="P16:P17" si="3">IF(AND(M16&gt;75,N16&gt;75,O16&gt;75),"Passed with Distinction","")</f>
+        <v>Passed with Distinction</v>
+      </c>
+      <c r="Q16" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>Promoted to next class</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -2211,10 +2302,16 @@
       <c r="O17" s="29">
         <v>82</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="29" t="str">
+        <f t="shared" si="3"/>
+        <v>Passed with Distinction</v>
+      </c>
+      <c r="Q17" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>Promoted to next class</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
@@ -2233,26 +2330,29 @@
         <v>30</v>
       </c>
       <c r="P18" s="29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(M18&gt;75,N18&gt;75,O18&gt;75),"Passed with Distinction","")</f>
         <v/>
       </c>
-      <c r="Q18" s="29"/>
-    </row>
-    <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>Failed</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
     </row>
-    <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="52"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
@@ -2280,30 +2380,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="3.7265625" customWidth="1"/>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="15" width="11.7265625" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -2316,39 +2416,39 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
       <c r="AA1" s="15"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2375,13 +2475,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2411,12 +2511,12 @@
         <v>A</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2429,16 +2529,25 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="P6" s="22" t="str">
+        <f t="shared" ref="P6:P9" si="0">IF(M6&gt;=75,"A","B")</f>
+        <v>B</v>
+      </c>
+      <c r="Q6" s="22" t="str">
+        <f t="shared" ref="Q6:Q9" si="1">IF(N6&gt;=85,"A",IF(N6&lt;60,"C","B"))</f>
+        <v>C</v>
+      </c>
+      <c r="R6" s="22" t="str">
+        <f t="shared" ref="R6:R9" si="2">IF(O6&gt;=85,"A",IF(AND(O6&lt;85,O6&gt;=60),"B","C"))</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2451,16 +2560,25 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+      <c r="P7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Q7" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="R7" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2473,16 +2591,25 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+      <c r="P8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="Q8" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+      <c r="R8" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2495,36 +2622,45 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="Q9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+      <c r="R9" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
       <c r="L12" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
         <v>9</v>
@@ -2546,7 +2682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
@@ -2557,16 +2693,16 @@
         <v>30</v>
       </c>
       <c r="M15" s="24">
-        <f>COUNTIF(P$5:P$9,$L$15)</f>
+        <f>COUNTIF(P5:P9,$L$15)</f>
+        <v>3</v>
+      </c>
+      <c r="N15" s="24">
+        <f>COUNTIF(Q5:Q9,$L$15)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="24">
-        <f>COUNTIF(Q$5:Q$9,$L15)</f>
-        <v>0</v>
-      </c>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
@@ -2580,7 +2716,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -2593,14 +2729,14 @@
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -2610,7 +2746,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
@@ -2621,7 +2757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="52"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
@@ -2631,7 +2767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L22" s="32" t="s">
         <v>37</v>
       </c>
@@ -2640,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N28" t="s">
         <v>46</v>
       </c>
@@ -2648,17 +2784,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="5">
         <v>34358</v>
       </c>
       <c r="O29" s="5">
         <f ca="1">TODAY()</f>
-        <v>45570</v>
-      </c>
-      <c r="P29" s="64">
+        <v>45664</v>
+      </c>
+      <c r="P29" s="36">
         <f ca="1">O29-N29</f>
-        <v>11212</v>
+        <v>11306</v>
       </c>
       <c r="Q29">
         <f ca="1">DATEDIF(N29,TODAY(),"Y")</f>
@@ -2687,27 +2823,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H13" zoomScale="129" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" zoomScale="129" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7265625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="3.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="18" width="11.7265625" customWidth="1"/>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="18" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -2720,38 +2856,38 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2778,13 +2914,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2805,21 +2941,21 @@
         <f>M5=100</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="20" t="b">
-        <f>AND(M5&gt;75,N5&gt;75,O5&gt;75)</f>
+      <c r="Q5" s="20" t="b" cm="1">
+        <f t="array" ref="Q5">AND(M5:O5&gt;75)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="20" t="b">
-        <f>OR(M5&lt;35,N5&lt;35,O5&lt;35)</f>
+      <c r="R5" s="20" t="b" cm="1">
+        <f t="array" ref="R5">OR(M5:O5&lt;35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
@@ -2836,21 +2972,21 @@
         <f t="shared" ref="P6:P9" si="0">M6=100</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="20" t="b">
-        <f t="shared" ref="Q6:Q9" si="1">AND(M6&gt;75,N6&gt;75,O6&gt;75)</f>
+      <c r="Q6" s="20" t="b" cm="1">
+        <f t="array" ref="Q6">AND(M6:O6&gt;75)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="20" t="b">
-        <f t="shared" ref="R6:R9" si="2">OR(M6&lt;35,N6&lt;35,O6&lt;35)</f>
+      <c r="R6" s="20" t="b" cm="1">
+        <f t="array" ref="R6">OR(M6:O6&lt;35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2867,21 +3003,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="20" t="b">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="20" t="b" cm="1">
+        <f t="array" ref="Q7">AND(M7:O7&gt;75)</f>
         <v>1</v>
       </c>
-      <c r="R7" s="20" t="b">
-        <f t="shared" si="2"/>
+      <c r="R7" s="20" t="b" cm="1">
+        <f t="array" ref="R7">OR(M7:O7&lt;35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
@@ -2898,21 +3034,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="20" t="b">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="20" t="b" cm="1">
+        <f t="array" ref="Q8">AND(M8:O8&gt;75)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="20" t="b">
-        <f t="shared" si="2"/>
+      <c r="R8" s="20" t="b" cm="1">
+        <f t="array" ref="R8">OR(M8:O8&lt;35)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="20" t="s">
         <v>21</v>
       </c>
@@ -2929,39 +3065,39 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="20" t="b">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="20" t="b" cm="1">
+        <f t="array" ref="Q9">AND(M9:O9&gt;75)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="20" t="b">
-        <f t="shared" si="2"/>
+      <c r="R9" s="20" t="b" cm="1">
+        <f t="array" ref="R9">OR(M9:O9&lt;35)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
       <c r="L11" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4"/>
       <c r="C12" s="12"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="13"/>
       <c r="L13" s="21" t="s">
         <v>24</v>
@@ -2976,7 +3112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
         <v>11</v>
@@ -2995,7 +3131,7 @@
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
@@ -3003,7 +3139,7 @@
       <c r="F15" s="50"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
@@ -3011,21 +3147,21 @@
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -3035,14 +3171,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
     </row>
-    <row r="21" spans="3:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="52"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
